--- a/Fichier_excel/Reseau_6.xlsx
+++ b/Fichier_excel/Reseau_6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Description noeud" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,9 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
-  <si>
-    <t xml:space="preserve">Numero du nœud</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+  <si>
+    <t xml:space="preserve">Numero du noeud</t>
   </si>
   <si>
     <t xml:space="preserve">Type</t>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Secondary</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary</t>
+    <t xml:space="preserve">Primary substation</t>
   </si>
   <si>
     <t xml:space="preserve">Neoud de depart</t>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t xml:space="preserve">Imax (A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parametre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeur</t>
   </si>
   <si>
     <t xml:space="preserve">Tension secondaire transformateur (pu)</t>
@@ -163,20 +169,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -199,8 +213,8 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -208,33 +222,33 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="10.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="23.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="16.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="17.45"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -257,10 +271,10 @@
       <c r="F2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="2" t="n">
         <v>0.02</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="2" t="n">
         <f aca="false">G2*0.4</f>
         <v>0.008</v>
       </c>
@@ -284,10 +298,10 @@
       <c r="F3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="2" t="n">
         <v>0.0371737581122686</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="2" t="n">
         <f aca="false">G3*0.4</f>
         <v>0.0148695032449074</v>
       </c>
@@ -311,10 +325,10 @@
       <c r="F4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="2" t="n">
         <v>0.0138096044888052</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="2" t="n">
         <f aca="false">G4*0.4</f>
         <v>0.00552384179552208</v>
       </c>
@@ -338,10 +352,10 @@
       <c r="F5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="2" t="n">
         <v>0.0374012756841706</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="2" t="n">
         <f aca="false">G5*0.4</f>
         <v>0.0149605102736682</v>
       </c>
@@ -365,10 +379,10 @@
       <c r="F6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="2" t="n">
         <v>0.0289707773867623</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="2" t="n">
         <f aca="false">G6*0.4</f>
         <v>0.0115883109547049</v>
       </c>
@@ -392,10 +406,10 @@
       <c r="F7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="2" t="n">
         <v>0.0129262121499823</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="2" t="n">
         <f aca="false">G7*0.4</f>
         <v>0.00517048485999292</v>
       </c>
@@ -419,10 +433,10 @@
       <c r="F8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="0" t="n">
+      <c r="G8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -445,10 +459,10 @@
       <c r="F9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="0" t="n">
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -479,27 +493,27 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="28.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="17.09"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -516,10 +530,10 @@
       <c r="D2" s="1" t="n">
         <v>0.5665</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="2" t="n">
         <v>0.275</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="2" t="n">
         <v>230</v>
       </c>
     </row>
@@ -536,10 +550,10 @@
       <c r="D3" s="1" t="n">
         <v>0.5665</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="2" t="n">
         <v>0.275</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="2" t="n">
         <v>230</v>
       </c>
     </row>
@@ -556,10 +570,10 @@
       <c r="D4" s="1" t="n">
         <v>0.660646849685973</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="2" t="n">
         <v>0.320702354216492</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="2" t="n">
         <v>230</v>
       </c>
     </row>
@@ -576,10 +590,10 @@
       <c r="D5" s="1" t="n">
         <v>0.5665</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="2" t="n">
         <v>0.275</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="2" t="n">
         <v>230</v>
       </c>
     </row>
@@ -596,10 +610,10 @@
       <c r="D6" s="1" t="n">
         <v>0.480691189850615</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="2" t="n">
         <v>0.233345237791561</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="2" t="n">
         <v>230</v>
       </c>
     </row>
@@ -616,10 +630,10 @@
       <c r="D7" s="1" t="n">
         <v>0.5665</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="2" t="n">
         <v>0.275</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="2" t="n">
         <v>230</v>
       </c>
     </row>
@@ -636,10 +650,10 @@
       <c r="D8" s="1" t="n">
         <v>0.506693003701452</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="2" t="n">
         <v>0.245967477524977</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="2" t="n">
         <v>230</v>
       </c>
     </row>
@@ -656,10 +670,10 @@
       <c r="D9" s="1" t="n">
         <v>0.5665</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="2" t="n">
         <v>0.275</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="2" t="n">
         <v>230</v>
       </c>
     </row>
@@ -699,22 +713,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -728,13 +742,13 @@
       <c r="C2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="2" t="n">
         <v>0.5665</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="2" t="n">
         <v>0.275</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="2" t="n">
         <v>230</v>
       </c>
     </row>
@@ -748,13 +762,13 @@
       <c r="C3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="2" t="n">
         <v>400</v>
       </c>
     </row>
@@ -768,13 +782,13 @@
       <c r="C4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="2" t="n">
         <v>400</v>
       </c>
     </row>
@@ -788,13 +802,13 @@
       <c r="C5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="2" t="n">
         <v>0.660646849685973</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="2" t="n">
         <v>0.320702354216492</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="2" t="n">
         <v>230</v>
       </c>
     </row>
@@ -808,13 +822,13 @@
       <c r="C6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="2" t="n">
         <v>0.5665</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="2" t="n">
         <v>0.275</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="2" t="n">
         <v>230</v>
       </c>
     </row>
@@ -828,13 +842,13 @@
       <c r="C7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="2" t="n">
         <v>400</v>
       </c>
     </row>
@@ -848,13 +862,13 @@
       <c r="C8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="2" t="n">
         <v>0.506693003701452</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="2" t="n">
         <v>0.245967477524977</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="2" t="n">
         <v>230</v>
       </c>
     </row>
@@ -868,13 +882,13 @@
       <c r="C9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="2" t="n">
         <v>0.5665</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="2" t="n">
         <v>0.275</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="2" t="n">
         <v>230</v>
       </c>
     </row>
@@ -896,39 +910,47 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="34.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.82"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="0" t="n">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="0" t="n">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="n">
         <v>20</v>
       </c>
     </row>

--- a/Fichier_excel/Reseau_6.xlsx
+++ b/Fichier_excel/Reseau_6.xlsx
@@ -37,10 +37,10 @@
     <t xml:space="preserve">Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Presence NOS reseau initial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presence NOS reseau final</t>
+    <t xml:space="preserve">NOS reseau initial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOS reseau final</t>
   </si>
   <si>
     <t xml:space="preserve">P (pu)</t>
@@ -55,13 +55,13 @@
     <t xml:space="preserve">Primary substation</t>
   </si>
   <si>
-    <t xml:space="preserve">Neoud de depart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noeud d'arrivee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lignes ouverte?</t>
+    <t xml:space="preserve">Noeud depart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noeud arrivee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ligne ouverte?</t>
   </si>
   <si>
     <t xml:space="preserve">R(pu)</t>
@@ -214,7 +214,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -245,10 +245,10 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -485,7 +485,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -497,7 +497,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="17.09"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -507,13 +507,13 @@
       <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -702,7 +702,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -722,13 +722,13 @@
       <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Fichier_excel/Reseau_6.xlsx
+++ b/Fichier_excel/Reseau_6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Description noeud" sheetId="1" state="visible" r:id="rId2"/>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Q(pu)</t>
   </si>
   <si>
-    <t xml:space="preserve">Secondary</t>
+    <t xml:space="preserve">Secondary substation</t>
   </si>
   <si>
     <t xml:space="preserve">Primary substation</t>
@@ -213,8 +213,8 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -252,7 +252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -279,7 +279,7 @@
         <v>0.008</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -306,7 +306,7 @@
         <v>0.0148695032449074</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -333,7 +333,7 @@
         <v>0.00552384179552208</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
@@ -360,7 +360,7 @@
         <v>0.0149605102736682</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
@@ -387,7 +387,7 @@
         <v>0.0115883109547049</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
@@ -484,8 +484,8 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Fichier_excel/Reseau_6.xlsx
+++ b/Fichier_excel/Reseau_6.xlsx
@@ -482,13 +482,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.82"/>
@@ -537,95 +537,95 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="n">
+        <v>0.660646849685973</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0.320702354216492</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>0.5665</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E4" s="2" t="n">
         <v>0.275</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>0.660646849685973</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0.320702354216492</v>
-      </c>
       <c r="F4" s="2" t="n">
         <v>230</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.5665</v>
+        <v>0.480691189850615</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.275</v>
+        <v>0.233345237791561</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>230</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.480691189850615</v>
+        <v>0.506693003701452</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.233345237791561</v>
+        <v>0.245967477524977</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>230</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>0.5665</v>
@@ -637,52 +637,128 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.5665</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.660646849685973</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0.320702354216492</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0.5665</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0.480691189850615</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0.233345237791561</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0.506693003701452</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0.245967477524977</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>0.506693003701452</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>0.245967477524977</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="n">
+      <c r="B13" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="n">
         <v>0.5665</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E13" s="2" t="n">
         <v>0.275</v>
       </c>
-      <c r="F9" s="2" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="1"/>
-    </row>
+      <c r="F13" s="2" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
